--- a/ResultadoEleicoesDistritos/VISEU_ARMAMAR.xlsx
+++ b/ResultadoEleicoesDistritos/VISEU_ARMAMAR.xlsx
@@ -597,64 +597,64 @@
         <v>1692</v>
       </c>
       <c r="H2" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="J2" t="n">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N2" t="n">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>12</v>
+      </c>
+      <c r="S2" t="n">
+        <v>84</v>
+      </c>
+      <c r="T2" t="n">
+        <v>115</v>
+      </c>
+      <c r="U2" t="n">
         <v>5</v>
       </c>
-      <c r="S2" t="n">
-        <v>89</v>
-      </c>
-      <c r="T2" t="n">
-        <v>127</v>
-      </c>
-      <c r="U2" t="n">
-        <v>13</v>
-      </c>
       <c r="V2" t="n">
-        <v>1112</v>
+        <v>1089</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>990</v>
+        <v>1091</v>
       </c>
       <c r="Y2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA2" t="n">
         <v>2</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
